--- a/data/trans_dic/P2C_R-Clase-trans_dic.xlsx
+++ b/data/trans_dic/P2C_R-Clase-trans_dic.xlsx
@@ -673,7 +673,7 @@
         <v>0.4612875550643799</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>0.0732993769256185</v>
+        <v>0.07329937692561851</v>
       </c>
       <c r="G4" s="5" t="n">
         <v>0.5397235091483782</v>
@@ -697,7 +697,7 @@
         <v>0.5906638301940914</v>
       </c>
       <c r="N4" s="5" t="n">
-        <v>0.0938725502612365</v>
+        <v>0.09387255026123649</v>
       </c>
     </row>
     <row r="5">
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.3875539941831055</v>
+        <v>0.3851915886805276</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.5693323743642061</v>
+        <v>0.5752497813895077</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.3947030752420885</v>
+        <v>0.3923146205101289</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.05201343037228901</v>
+        <v>0.05225722255022448</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.4739235884490737</v>
+        <v>0.4747701674424805</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.7327845268210386</v>
+        <v>0.7333869004416979</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.6570673979718381</v>
+        <v>0.66208046096261</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.09438544619589333</v>
+        <v>0.0922071630690247</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.4386546241531138</v>
+        <v>0.4433215868827282</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.6644752907097218</v>
+        <v>0.6649907195527291</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.5390287881634424</v>
+        <v>0.5408979072085113</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.07910482415927286</v>
+        <v>0.07900361396878942</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.5078510568905101</v>
+        <v>0.5087960844498558</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.698037936690532</v>
+        <v>0.6950563328863719</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.5288639956667543</v>
+        <v>0.5262046231288378</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.1007085804521768</v>
+        <v>0.09960145276508035</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.6042396294431734</v>
+        <v>0.6132543869017031</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.8557276314401493</v>
+        <v>0.8544765606456042</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.791536172555855</v>
+        <v>0.7859422852289111</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.1459981681190319</v>
+        <v>0.1465198928306315</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.5282055425896427</v>
+        <v>0.533656628417823</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.7572059236425138</v>
+        <v>0.7544201329357212</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.6375870666164846</v>
+        <v>0.6355419399580432</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.1169236906709279</v>
+        <v>0.1133343766291782</v>
       </c>
     </row>
     <row r="7">
@@ -809,7 +809,7 @@
         <v>0.4944136287288826</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>0.06506704567437092</v>
+        <v>0.0650670456743709</v>
       </c>
       <c r="G7" s="5" t="n">
         <v>0.6516548836283783</v>
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.4078642654458517</v>
+        <v>0.4086705879166959</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.5193831688424541</v>
+        <v>0.519102100116117</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.4229286582399417</v>
+        <v>0.4300774513966447</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.04462034368292393</v>
+        <v>0.04496658453615132</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.5848602729092941</v>
+        <v>0.578478728504992</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.7806792287959819</v>
+        <v>0.7867243380622004</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.6546660654023803</v>
+        <v>0.6518634373544802</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.09650673739146763</v>
+        <v>0.09740552275238622</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.5221644331233288</v>
+        <v>0.5209568458058045</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.6596348108208112</v>
+        <v>0.6586617261283463</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.5618818998003727</v>
+        <v>0.5596059068647251</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.07700801470168006</v>
+        <v>0.07694883149096197</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.5550984591360343</v>
+        <v>0.5602443185163887</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.6515487730522531</v>
+        <v>0.6490524182127984</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.5620759421758276</v>
+        <v>0.5685706389645951</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.09258282610940116</v>
+        <v>0.09311959864782005</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.7095455633565529</v>
+        <v>0.7153500448182853</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.8847610664317209</v>
+        <v>0.8831672749525205</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.7730672604802877</v>
+        <v>0.7673432018079653</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.1544378617454854</v>
+        <v>0.1565956247927684</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.6195043231183708</v>
+        <v>0.61897910604189</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.7484132704200486</v>
+        <v>0.7463932104863171</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.6518741070196906</v>
+        <v>0.6489275364343625</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.1138594841372991</v>
+        <v>0.1157123911338747</v>
       </c>
     </row>
     <row r="10">
@@ -980,40 +980,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.337958313013407</v>
+        <v>0.337780294805187</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.4410986793850676</v>
+        <v>0.4430327940864462</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.4007126503425757</v>
+        <v>0.40465322034788</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.08418296324558285</v>
+        <v>0.08451770305558569</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.4748300684078432</v>
+        <v>0.4741358033767555</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.5178120444088963</v>
+        <v>0.5236125068931364</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.3721258487610303</v>
+        <v>0.3917597538884717</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.06326168796055734</v>
+        <v>0.06652535272152654</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.3951583729670635</v>
+        <v>0.3915280599962724</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.4842643644938664</v>
+        <v>0.4829410314222673</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.4157350030550049</v>
+        <v>0.4149478755652647</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.08095309034621392</v>
+        <v>0.08312139585513258</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.4422912456530399</v>
+        <v>0.4453586889684393</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.5453070678749921</v>
+        <v>0.5502888164871378</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.5119510914452562</v>
+        <v>0.5131048543339803</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.1457765529772281</v>
+        <v>0.1463097646654919</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.651607118291297</v>
+        <v>0.6557119196444653</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.6719948908273345</v>
+        <v>0.6683701069914714</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.5652089092578894</v>
+        <v>0.5760683954890163</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.1358935425248352</v>
+        <v>0.1350684153472159</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.4869398944304312</v>
+        <v>0.481415759321266</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.5658310623988558</v>
+        <v>0.5694483979859674</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.5127860694325541</v>
+        <v>0.5108489402374512</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.1289376414853224</v>
+        <v>0.1339409151551346</v>
       </c>
     </row>
     <row r="13">
@@ -1116,40 +1116,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.3094211759209817</v>
+        <v>0.3076700282669058</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.4316882380308151</v>
+        <v>0.4349053835710883</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.4203267885754032</v>
+        <v>0.4195909612174364</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.09106362452273969</v>
+        <v>0.0940251720412319</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.5184914182227954</v>
+        <v>0.5166121547905582</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.7384954219217622</v>
+        <v>0.7396198634898618</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.5834511746694565</v>
+        <v>0.5796108715104181</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.1090223828159906</v>
+        <v>0.109721537466767</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.4011324670892041</v>
+        <v>0.397576347426069</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.5692126349621475</v>
+        <v>0.5670839266345411</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.505580349340629</v>
+        <v>0.5066053694255582</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.1056808960274505</v>
+        <v>0.104158398383031</v>
       </c>
     </row>
     <row r="15">
@@ -1160,40 +1160,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.3788113731220695</v>
+        <v>0.3756672001539791</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.5062525165466624</v>
+        <v>0.5075189073510319</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.4990091142251046</v>
+        <v>0.4938966315789168</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.1326506723325291</v>
+        <v>0.1324840374908005</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.6118949908229916</v>
+        <v>0.6076179966092353</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.8150607604318988</v>
+        <v>0.8123873056278281</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.6695950185560982</v>
+        <v>0.667770997232471</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.1519714528199181</v>
+        <v>0.1498767433538155</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.4538586931962379</v>
+        <v>0.4568535376971106</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.624062539101934</v>
+        <v>0.6220909394440081</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.5631443154683471</v>
+        <v>0.5609257524608525</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.1347600010835862</v>
+        <v>0.1347747082375109</v>
       </c>
     </row>
     <row r="16">
@@ -1217,7 +1217,7 @@
         <v>0.4096640814755483</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>0.07733129676761133</v>
+        <v>0.0773312967676113</v>
       </c>
       <c r="G16" s="5" t="n">
         <v>0.4891336633214213</v>
@@ -1252,40 +1252,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.2699721525558121</v>
+        <v>0.2671897617535461</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.3953869850513605</v>
+        <v>0.4013089408012537</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.3615323324353369</v>
+        <v>0.3575238197113982</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.05612303025294802</v>
+        <v>0.0553104083864947</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.4380949861264244</v>
+        <v>0.4392100421849775</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.5739410802819039</v>
+        <v>0.5756105514269977</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.4815073458455596</v>
+        <v>0.4799579733589848</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.1283938619736744</v>
+        <v>0.1307889518071992</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.3947946075591585</v>
+        <v>0.3965157395419341</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.5281017383874536</v>
+        <v>0.5273760824563531</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.4447086098889365</v>
+        <v>0.4392727162898092</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.1045247510048828</v>
+        <v>0.1059833221574265</v>
       </c>
     </row>
     <row r="18">
@@ -1296,40 +1296,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.4093039130244204</v>
+        <v>0.4059725110484228</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.5083774743395963</v>
+        <v>0.5149348671220891</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.4672344721340541</v>
+        <v>0.4622185291467325</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.1052376174588163</v>
+        <v>0.1045677262571326</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.543567471078909</v>
+        <v>0.5409419215501421</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.6574059112106281</v>
+        <v>0.6566681613803211</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.5764325361062973</v>
+        <v>0.5738503770878332</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.1724644927556489</v>
+        <v>0.1751282011594774</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.4736151446434457</v>
+        <v>0.4812650542486344</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.5945011801181737</v>
+        <v>0.5959598681276125</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.5118935056742087</v>
+        <v>0.5115285395749718</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.1381937913252879</v>
+        <v>0.1389678905208</v>
       </c>
     </row>
     <row r="19">
@@ -1353,7 +1353,7 @@
         <v>0.2487115282504562</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>0.04430398117266142</v>
+        <v>0.04430398117266143</v>
       </c>
       <c r="G19" s="5" t="n">
         <v>0.3058075110885455</v>
@@ -1388,40 +1388,40 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.09019757044207133</v>
+        <v>0.08492163472979257</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.09596166540140828</v>
+        <v>0.09943435735924742</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.1618532528803635</v>
+        <v>0.1674383758511064</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.01590066122323692</v>
+        <v>0.01679945354005897</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.2742904062270199</v>
+        <v>0.2779889421196067</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>0.3596634436075244</v>
+        <v>0.3617767791386745</v>
       </c>
       <c r="I20" s="5" t="n">
-        <v>0.2655617786064479</v>
+        <v>0.2647313896988796</v>
       </c>
       <c r="J20" s="5" t="n">
-        <v>0.11123756894763</v>
+        <v>0.1098261707930595</v>
       </c>
       <c r="K20" s="5" t="n">
-        <v>0.2616056415997</v>
+        <v>0.261737368258512</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>0.3358722080209858</v>
+        <v>0.3364452814753114</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>0.262869441260809</v>
+        <v>0.2614706311509821</v>
       </c>
       <c r="N20" s="5" t="n">
-        <v>0.09446270622075509</v>
+        <v>0.09186726067036356</v>
       </c>
     </row>
     <row r="21">
@@ -1432,40 +1432,40 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.2337549342731219</v>
+        <v>0.2283095504910619</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.254229624511954</v>
+        <v>0.2548172031924409</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.3365540890561321</v>
+        <v>0.3398364844363672</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>0.1005317090420639</v>
+        <v>0.09751395879429399</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>0.33613354875621</v>
+        <v>0.3374932977716696</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>0.4309063874364349</v>
+        <v>0.4307291256522014</v>
       </c>
       <c r="I21" s="5" t="n">
-        <v>0.3380481024197068</v>
+        <v>0.3341817963177404</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>0.1517959976970231</v>
+        <v>0.1540342700299677</v>
       </c>
       <c r="K21" s="5" t="n">
-        <v>0.3191345796321313</v>
+        <v>0.3181183538745427</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>0.3975025740684541</v>
+        <v>0.3998328160117622</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>0.3280377884246957</v>
+        <v>0.3274739067793621</v>
       </c>
       <c r="N21" s="5" t="n">
-        <v>0.1338805733251815</v>
+        <v>0.1319952352164338</v>
       </c>
     </row>
     <row r="22">
@@ -1501,7 +1501,7 @@
         <v>0.5124992339948691</v>
       </c>
       <c r="J22" s="5" t="n">
-        <v>0.1302300916069927</v>
+        <v>0.1302300916069928</v>
       </c>
       <c r="K22" s="5" t="n">
         <v>0.4190648941659987</v>
@@ -1524,40 +1524,40 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.3466049539745635</v>
+        <v>0.3471401280771698</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.4702518663310503</v>
+        <v>0.4715655090300852</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.4196321684123918</v>
+        <v>0.419569625870141</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.07824287860201898</v>
+        <v>0.07817723544374083</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.4391359692562227</v>
+        <v>0.4387602356959537</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>0.5972919369441548</v>
+        <v>0.5972661571213765</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>0.4914849609971861</v>
+        <v>0.4914959485644625</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>0.1205709352156548</v>
+        <v>0.1213512010457252</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>0.4036188110890739</v>
+        <v>0.4037896196273519</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>0.5439851944698036</v>
+        <v>0.544251291269635</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>0.4651900098587548</v>
+        <v>0.465443823534299</v>
       </c>
       <c r="N23" s="5" t="n">
-        <v>0.1027976619585895</v>
+        <v>0.1020089838129209</v>
       </c>
     </row>
     <row r="24">
@@ -1568,40 +1568,40 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.3915454907682195</v>
+        <v>0.3930982284122941</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.5162106913571823</v>
+        <v>0.5188369434892081</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.4649499290394135</v>
+        <v>0.4664843695279295</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.09982563330954806</v>
+        <v>0.09876263588834712</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.4797312052331782</v>
+        <v>0.4801209011355188</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>0.6354981597949869</v>
+        <v>0.6355740829291567</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>0.5341574385320323</v>
+        <v>0.5320334158234867</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>0.1404451070444274</v>
+        <v>0.1414685023661091</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>0.4338606897030394</v>
+        <v>0.4361161427001344</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>0.5746994102976214</v>
+        <v>0.5752810534112373</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>0.4961536524120446</v>
+        <v>0.4962357734808602</v>
       </c>
       <c r="N24" s="5" t="n">
-        <v>0.117796528731659</v>
+        <v>0.1167973155024121</v>
       </c>
     </row>
     <row r="25">
@@ -1874,40 +1874,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>109200</v>
+        <v>108535</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>145306</v>
+        <v>146816</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>86499</v>
+        <v>85975</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>28640</v>
+        <v>28774</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>97795</v>
+        <v>97969</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>151532</v>
+        <v>151656</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>135828</v>
+        <v>136865</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>46099</v>
+        <v>45035</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>214116</v>
+        <v>216394</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>306994</v>
+        <v>307232</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>229555</v>
+        <v>230351</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>82192</v>
+        <v>82087</v>
       </c>
     </row>
     <row r="7">
@@ -1918,40 +1918,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>143096</v>
+        <v>143362</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>178154</v>
+        <v>177393</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>115900</v>
+        <v>115317</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>55452</v>
+        <v>54842</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>124685</v>
+        <v>126546</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>176955</v>
+        <v>176696</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>163626</v>
+        <v>162469</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>71307</v>
+        <v>71562</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>257827</v>
+        <v>260488</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>349836</v>
+        <v>348549</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>271528</v>
+        <v>270657</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>121487</v>
+        <v>117758</v>
       </c>
     </row>
     <row r="8">
@@ -2054,40 +2054,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>80153</v>
+        <v>80311</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>140380</v>
+        <v>140304</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>96750</v>
+        <v>98386</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>21561</v>
+        <v>21728</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>130709</v>
+        <v>129283</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>185146</v>
+        <v>186580</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>159449</v>
+        <v>158767</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>40836</v>
+        <v>41216</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>219312</v>
+        <v>218805</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>334727</v>
+        <v>334233</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>265389</v>
+        <v>264314</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>69797</v>
+        <v>69743</v>
       </c>
     </row>
     <row r="11">
@@ -2098,40 +2098,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>109087</v>
+        <v>110098</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>176103</v>
+        <v>175428</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>128582</v>
+        <v>130068</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>44737</v>
+        <v>44997</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>158575</v>
+        <v>159872</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>209830</v>
+        <v>209452</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>188287</v>
+        <v>186893</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>65349</v>
+        <v>66262</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>260196</v>
+        <v>259975</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>379777</v>
+        <v>378752</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>307894</v>
+        <v>306502</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>103197</v>
+        <v>104877</v>
       </c>
     </row>
     <row r="12">
@@ -2234,40 +2234,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>114652</v>
+        <v>114592</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>180380</v>
+        <v>181171</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>132427</v>
+        <v>133729</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>39702</v>
+        <v>39860</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>59879</v>
+        <v>59792</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>94722</v>
+        <v>95783</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>45596</v>
+        <v>48002</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>11861</v>
+        <v>12473</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>183889</v>
+        <v>182200</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>286617</v>
+        <v>285833</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>188330</v>
+        <v>187974</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>53357</v>
+        <v>54786</v>
       </c>
     </row>
     <row r="15">
@@ -2278,40 +2278,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>150047</v>
+        <v>151087</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>222994</v>
+        <v>225031</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>169189</v>
+        <v>169570</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>68750</v>
+        <v>69001</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>82172</v>
+        <v>82690</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>122926</v>
+        <v>122263</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>69254</v>
+        <v>70585</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>25480</v>
+        <v>25325</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>226600</v>
+        <v>224030</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>334893</v>
+        <v>337034</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>232295</v>
+        <v>231418</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>84984</v>
+        <v>88282</v>
       </c>
     </row>
     <row r="16">
@@ -2414,40 +2414,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>240302</v>
+        <v>238942</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>336595</v>
+        <v>339104</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>267673</v>
+        <v>267204</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>103070</v>
+        <v>106422</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>243686</v>
+        <v>242803</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>385275</v>
+        <v>385862</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>304896</v>
+        <v>302890</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>93891</v>
+        <v>94493</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>500056</v>
+        <v>495623</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>740785</v>
+        <v>738015</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>586167</v>
+        <v>587356</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>210628</v>
+        <v>207593</v>
       </c>
     </row>
     <row r="19">
@@ -2458,40 +2458,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>294192</v>
+        <v>291750</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>394734</v>
+        <v>395722</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>317779</v>
+        <v>314524</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>150140</v>
+        <v>149951</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>287585</v>
+        <v>285575</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>425220</v>
+        <v>423825</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>349913</v>
+        <v>348960</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>130879</v>
+        <v>129076</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>565785</v>
+        <v>569518</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>812168</v>
+        <v>809602</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>652907</v>
+        <v>650335</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>268584</v>
+        <v>268613</v>
       </c>
     </row>
     <row r="20">
@@ -2594,40 +2594,40 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>55938</v>
+        <v>55361</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>126663</v>
+        <v>128560</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>135846</v>
+        <v>134340</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>31876</v>
+        <v>31414</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>177749</v>
+        <v>178201</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>336297</v>
+        <v>337276</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>240780</v>
+        <v>240005</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>106676</v>
+        <v>108666</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>241982</v>
+        <v>243037</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>478616</v>
+        <v>477958</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>389478</v>
+        <v>384717</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>146211</v>
+        <v>148251</v>
       </c>
     </row>
     <row r="23">
@@ -2638,40 +2638,40 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>84807</v>
+        <v>84117</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>162859</v>
+        <v>164960</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>175564</v>
+        <v>173679</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>59771</v>
+        <v>59391</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>220542</v>
+        <v>219477</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>385203</v>
+        <v>384771</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>288247</v>
+        <v>286956</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>143292</v>
+        <v>145505</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>290293</v>
+        <v>294982</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>538793</v>
+        <v>540115</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>448319</v>
+        <v>447999</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>193307</v>
+        <v>194390</v>
       </c>
     </row>
     <row r="24">
@@ -2774,40 +2774,40 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>9637</v>
+        <v>9073</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>9867</v>
+        <v>10224</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>16968</v>
+        <v>17553</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>3772</v>
+        <v>3985</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>238254</v>
+        <v>241467</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>278811</v>
+        <v>280450</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>193778</v>
+        <v>193172</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>93916</v>
+        <v>92724</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>255187</v>
+        <v>255315</v>
       </c>
       <c r="L26" s="6" t="n">
-        <v>294903</v>
+        <v>295406</v>
       </c>
       <c r="M26" s="6" t="n">
-        <v>219371</v>
+        <v>218204</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>102162</v>
+        <v>99355</v>
       </c>
     </row>
     <row r="27">
@@ -2818,40 +2818,40 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>24975</v>
+        <v>24393</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>26140</v>
+        <v>26201</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>35282</v>
+        <v>35626</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>23849</v>
+        <v>23133</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>291973</v>
+        <v>293154</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>334039</v>
+        <v>333902</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>246671</v>
+        <v>243850</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>128158</v>
+        <v>130048</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>311304</v>
+        <v>310313</v>
       </c>
       <c r="L27" s="6" t="n">
-        <v>349016</v>
+        <v>351062</v>
       </c>
       <c r="M27" s="6" t="n">
-        <v>273756</v>
+        <v>273285</v>
       </c>
       <c r="N27" s="6" t="n">
-        <v>144793</v>
+        <v>142754</v>
       </c>
     </row>
     <row r="28">
@@ -2954,40 +2954,40 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>661390</v>
+        <v>662411</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>1005082</v>
+        <v>1007889</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>795537</v>
+        <v>795418</v>
       </c>
       <c r="F30" s="6" t="n">
-        <v>269349</v>
+        <v>269123</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>1010140</v>
+        <v>1009275</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>1499038</v>
+        <v>1498973</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>1142764</v>
+        <v>1142790</v>
       </c>
       <c r="J30" s="6" t="n">
-        <v>438323</v>
+        <v>441159</v>
       </c>
       <c r="K30" s="6" t="n">
-        <v>1698624</v>
+        <v>1699343</v>
       </c>
       <c r="L30" s="6" t="n">
-        <v>2527926</v>
+        <v>2529163</v>
       </c>
       <c r="M30" s="6" t="n">
-        <v>1963530</v>
+        <v>1964602</v>
       </c>
       <c r="N30" s="6" t="n">
-        <v>727588</v>
+        <v>722006</v>
       </c>
     </row>
     <row r="31">
@@ -2998,40 +2998,40 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>747146</v>
+        <v>750108</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>1103311</v>
+        <v>1108924</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>881450</v>
+        <v>884359</v>
       </c>
       <c r="F31" s="6" t="n">
-        <v>343647</v>
+        <v>339988</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>1103520</v>
+        <v>1104417</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>1594925</v>
+        <v>1595116</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>1241983</v>
+        <v>1237044</v>
       </c>
       <c r="J31" s="6" t="n">
-        <v>510573</v>
+        <v>514294</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>1825897</v>
+        <v>1835389</v>
       </c>
       <c r="L31" s="6" t="n">
-        <v>2670657</v>
+        <v>2673360</v>
       </c>
       <c r="M31" s="6" t="n">
-        <v>2094225</v>
+        <v>2094572</v>
       </c>
       <c r="N31" s="6" t="n">
-        <v>833748</v>
+        <v>826676</v>
       </c>
     </row>
     <row r="32">
